--- a/assets/formatos/listado_piezas_reparacion.xlsx
+++ b/assets/formatos/listado_piezas_reparacion.xlsx
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -479,11 +479,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="D5">
-        <v>140.34</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
